--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="201">
   <si>
     <t>Customer</t>
   </si>
@@ -632,6 +632,39 @@
   </si>
   <si>
     <t>99414.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>97802.0</t>
+  </si>
+  <si>
+    <t>98901.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>97800.0</t>
+  </si>
+  <si>
+    <t>98900.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>97798.0</t>
+  </si>
+  <si>
+    <t>98899.0</t>
+  </si>
+  <si>
+    <t>97796.0</t>
+  </si>
+  <si>
+    <t>98898.0</t>
   </si>
 </sst>
 </file>
@@ -641,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="181" x14ac:knownFonts="1">
+  <fonts count="217" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +719,222 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1740,7 +1989,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="106">
     <border>
       <left/>
       <right/>
@@ -2009,11 +2258,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="220">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2198,8 +2501,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="180" fillId="0" borderId="87" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="216" fillId="0" borderId="105" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4722,7 +5061,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>165</v>
@@ -4736,7 +5075,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>166</v>

--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4221CF31-DDDA-40AF-8D49-4D2FF3B86499}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3AEE612F-D20D-4380-B129-7863B454B0FA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="10920" windowWidth="26670" xWindow="21525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5265"/>
+    <workbookView activeTab="3" firstSheet="15" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" r:id="rId1" sheetId="14"/>
@@ -31,17 +31,18 @@
     <sheet name="SOFulfillReverse" r:id="rId16" sheetId="25"/>
     <sheet name="SOFulfillReverse_Complete" r:id="rId17" sheetId="27"/>
     <sheet name="Requirements_Complete" r:id="rId18" sheetId="21"/>
-    <sheet name="SOFulfillment_Complete" r:id="rId19" sheetId="26"/>
-    <sheet name="RequirementsAfterPartialReverse" r:id="rId20" sheetId="22"/>
-    <sheet name="ReqAfterReversal_Complete" r:id="rId21" sheetId="29"/>
-    <sheet name="Requirements" r:id="rId22" sheetId="9"/>
-    <sheet name="Requirements_Partial" r:id="rId23" sheetId="17"/>
-    <sheet name="SOORDDMD" r:id="rId24" sheetId="10"/>
-    <sheet name="SOORDDMD_Complete" r:id="rId25" sheetId="23"/>
-    <sheet name="SOORDDMDAfterPartialReverse" r:id="rId26" sheetId="24"/>
-    <sheet name="SOORDDMD_Partial" r:id="rId27" sheetId="18"/>
-    <sheet name="SOORDDMDAfterReversal_Complete" r:id="rId28" sheetId="28"/>
-    <sheet name="Dimensions" r:id="rId29" sheetId="11"/>
+    <sheet name="SOFulfillment_Partial" r:id="rId19" sheetId="40"/>
+    <sheet name="SOFulfillment_Complete" r:id="rId20" sheetId="26"/>
+    <sheet name="RequirementsAfterPartialReverse" r:id="rId21" sheetId="22"/>
+    <sheet name="ReqAfterReversal_Complete" r:id="rId22" sheetId="29"/>
+    <sheet name="Requirements" r:id="rId23" sheetId="9"/>
+    <sheet name="Requirements_Partial" r:id="rId24" sheetId="17"/>
+    <sheet name="SOORDDMD" r:id="rId25" sheetId="10"/>
+    <sheet name="SOORDDMD_Complete" r:id="rId26" sheetId="23"/>
+    <sheet name="SOORDDMDAfterPartialReverse" r:id="rId27" sheetId="24"/>
+    <sheet name="SOORDDMD_Partial" r:id="rId28" sheetId="18"/>
+    <sheet name="SOORDDMDAfterReversal_Complete" r:id="rId29" sheetId="28"/>
+    <sheet name="Dimensions" r:id="rId30" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="164">
   <si>
     <t>Customer</t>
   </si>
@@ -454,15 +455,6 @@
     <t>PB_Automation</t>
   </si>
   <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>99613.0</t>
-  </si>
-  <si>
-    <t>99812.0</t>
-  </si>
-  <si>
     <t>Rootstock Vendor</t>
   </si>
   <si>
@@ -499,172 +491,70 @@
     <t>India</t>
   </si>
   <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>99107.0</t>
-  </si>
-  <si>
-    <t>99560.0</t>
-  </si>
-  <si>
     <t>DiscountPct</t>
   </si>
   <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>99105.0</t>
-  </si>
-  <si>
-    <t>99558.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>99103.0</t>
-  </si>
-  <si>
-    <t>99557.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>99101.0</t>
-  </si>
-  <si>
-    <t>99556.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>99099.0</t>
-  </si>
-  <si>
-    <t>99555.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>99097.0</t>
-  </si>
-  <si>
-    <t>99554.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>99095.0</t>
-  </si>
-  <si>
-    <t>99553.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>99087.0</t>
-  </si>
-  <si>
-    <t>99547.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>99077.0</t>
-  </si>
-  <si>
-    <t>99542.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>99075.0</t>
-  </si>
-  <si>
-    <t>99541.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>99073.0</t>
-  </si>
-  <si>
-    <t>99540.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>99067.0</t>
-  </si>
-  <si>
-    <t>99537.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>99065.0</t>
-  </si>
-  <si>
-    <t>99536.0</t>
-  </si>
-  <si>
-    <t>98933.0</t>
-  </si>
-  <si>
-    <t>99475.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>98811.0</t>
-  </si>
-  <si>
-    <t>99414.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>97802.0</t>
-  </si>
-  <si>
-    <t>98901.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>97800.0</t>
-  </si>
-  <si>
-    <t>98900.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>97798.0</t>
-  </si>
-  <si>
-    <t>98899.0</t>
-  </si>
-  <si>
-    <t>97796.0</t>
-  </si>
-  <si>
-    <t>98898.0</t>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>97406.0</t>
+  </si>
+  <si>
+    <t>98702.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>97402.0</t>
+  </si>
+  <si>
+    <t>98700.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>97404.0</t>
+  </si>
+  <si>
+    <t>98701.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>97400.0</t>
+  </si>
+  <si>
+    <t>98699.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>97398.0</t>
+  </si>
+  <si>
+    <t>98698.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>97313.0</t>
+  </si>
+  <si>
+    <t>98656.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>97311.0</t>
+  </si>
+  <si>
+    <t>98655.0</t>
   </si>
 </sst>
 </file>
@@ -674,7 +564,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="217" x14ac:knownFonts="1">
+  <fonts count="79" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,834 +609,6 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1989,7 +1051,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="106">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2105,218 +1167,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2399,146 +1254,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="216" fillId="0" borderId="105" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="78" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2822,7 +1539,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,7 +1852,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,7 +1888,7 @@
         <v>48</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,7 +1896,7 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3187,7 +1904,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,7 +1912,7 @@
         <v>73</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +1925,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,7 +2109,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,11 +2195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42A8B7-E8CA-4808-B9C2-F08D9DD12C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EBB0E8-7736-4B3E-8E32-A499FC9E511B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,7 +2221,7 @@
         <v>47</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +2229,7 @@
         <v>48</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +2237,7 @@
         <v>49</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +2245,7 @@
         <v>72</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +2253,7 @@
         <v>73</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3548,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>42</v>
@@ -3828,6 +2545,73 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42A8B7-E8CA-4808-B9C2-F08D9DD12C52}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62A9229-E86A-4027-BB56-A44835B7F72B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3900,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4FCB4-E35D-4534-B2C1-E70F12719CC8}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3973,7 +2757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4063,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A560793F-0494-4CD5-BC3A-BDC8EE3E00DA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4153,7 +2937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4243,12 +3027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC13E90-A910-4F2B-A97F-391C58C0C01E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33A50A-62EE-4A11-9018-AC7DAE1E9EBF}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4429,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44C4694-381A-4457-8D8C-ADD3CA0E5F41}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4517,7 +3301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0933D21E-089C-4C90-9CAD-0DFCF820E07F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4610,170 +3394,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D4BD-94B9-4920-AF2D-A59E170DB0E2}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,6 +3634,164 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -5047,10 +3831,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5061,10 +3845,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5075,10 +3859,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5111,28 +3895,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5143,19 +3927,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>411038</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <v>1236547891</v>

--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3AEE612F-D20D-4380-B129-7863B454B0FA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{349E109C-6687-4857-9F49-5867572EC020}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="15" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" r:id="rId1" sheetId="14"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="172">
   <si>
     <t>Customer</t>
   </si>
@@ -494,60 +494,6 @@
     <t>DiscountPct</t>
   </si>
   <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>97406.0</t>
-  </si>
-  <si>
-    <t>98702.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>97402.0</t>
-  </si>
-  <si>
-    <t>98700.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>97404.0</t>
-  </si>
-  <si>
-    <t>98701.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>97400.0</t>
-  </si>
-  <si>
-    <t>98699.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>97398.0</t>
-  </si>
-  <si>
-    <t>98698.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>97313.0</t>
-  </si>
-  <si>
-    <t>98656.0</t>
-  </si>
-  <si>
     <t>74.0</t>
   </si>
   <si>
@@ -555,6 +501,84 @@
   </si>
   <si>
     <t>98655.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>97241.0</t>
+  </si>
+  <si>
+    <t>98620.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>97239.0</t>
+  </si>
+  <si>
+    <t>98619.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>97235.0</t>
+  </si>
+  <si>
+    <t>98617.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>97237.0</t>
+  </si>
+  <si>
+    <t>98618.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>97233.0</t>
+  </si>
+  <si>
+    <t>98616.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>97232.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>97230.0</t>
+  </si>
+  <si>
+    <t>98615.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>97228.0</t>
+  </si>
+  <si>
+    <t>98614.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>97226.0</t>
+  </si>
+  <si>
+    <t>98613.0</t>
   </si>
 </sst>
 </file>
@@ -564,7 +588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="85" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +633,42 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1051,7 +1111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1167,11 +1227,20 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1254,8 +1323,14 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="78" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="84" fillId="0" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2198,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EBB0E8-7736-4B3E-8E32-A499FC9E511B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2341,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D4BD-94B9-4920-AF2D-A59E170DB0E2}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,14 +3485,15 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3440,22 +3516,25 @@
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3477,23 +3556,26 @@
       <c r="G2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -3515,20 +3597,23 @@
       <c r="G3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -3550,20 +3635,23 @@
       <c r="G4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -3585,20 +3673,23 @@
       <c r="G5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -3620,16 +3711,19 @@
       <c r="G6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6" t="b">
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3831,10 +3925,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3845,10 +3939,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3859,10 +3953,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="198">
   <si>
     <t>Customer</t>
   </si>
@@ -579,6 +579,84 @@
   </si>
   <si>
     <t>98613.0</t>
+  </si>
+  <si>
+    <t>97054.0</t>
+  </si>
+  <si>
+    <t>98527.0</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>97045.0</t>
+  </si>
+  <si>
+    <t>98523.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>97043.0</t>
+  </si>
+  <si>
+    <t>98522.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>97041.0</t>
+  </si>
+  <si>
+    <t>98521.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>97039.0</t>
+  </si>
+  <si>
+    <t>98520.0</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>97037.0</t>
+  </si>
+  <si>
+    <t>98519.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>97033.0</t>
+  </si>
+  <si>
+    <t>98517.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>97035.0</t>
+  </si>
+  <si>
+    <t>98518.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>97031.0</t>
+  </si>
+  <si>
+    <t>98516.0</t>
   </si>
 </sst>
 </file>
@@ -588,7 +666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +711,618 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1111,7 +1801,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1236,11 +1926,164 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1329,8 +2172,110 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="84" fillId="0" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="186" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3925,10 +4870,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3939,10 +4884,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3953,10 +4898,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{349E109C-6687-4857-9F49-5867572EC020}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EB70B9BF-CBDF-46A1-8509-9FD1BE3C83C9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="3" firstSheet="25" windowHeight="10890" windowWidth="28710" xWindow="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="60"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" r:id="rId1" sheetId="14"/>
@@ -43,6 +43,7 @@
     <sheet name="SOORDDMD_Partial" r:id="rId28" sheetId="18"/>
     <sheet name="SOORDDMDAfterReversal_Complete" r:id="rId29" sheetId="28"/>
     <sheet name="Dimensions" r:id="rId30" sheetId="11"/>
+    <sheet name="CreditHold" r:id="rId31" sheetId="41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="161">
   <si>
     <t>Customer</t>
   </si>
@@ -494,153 +495,6 @@
     <t>DiscountPct</t>
   </si>
   <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>97311.0</t>
-  </si>
-  <si>
-    <t>98655.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>97241.0</t>
-  </si>
-  <si>
-    <t>98620.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>97239.0</t>
-  </si>
-  <si>
-    <t>98619.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>97235.0</t>
-  </si>
-  <si>
-    <t>98617.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>97237.0</t>
-  </si>
-  <si>
-    <t>98618.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>97233.0</t>
-  </si>
-  <si>
-    <t>98616.0</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>97232.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>97230.0</t>
-  </si>
-  <si>
-    <t>98615.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>97228.0</t>
-  </si>
-  <si>
-    <t>98614.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>97226.0</t>
-  </si>
-  <si>
-    <t>98613.0</t>
-  </si>
-  <si>
-    <t>97054.0</t>
-  </si>
-  <si>
-    <t>98527.0</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>97045.0</t>
-  </si>
-  <si>
-    <t>98523.0</t>
-  </si>
-  <si>
-    <t>127.0</t>
-  </si>
-  <si>
-    <t>97043.0</t>
-  </si>
-  <si>
-    <t>98522.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>97041.0</t>
-  </si>
-  <si>
-    <t>98521.0</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>97039.0</t>
-  </si>
-  <si>
-    <t>98520.0</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>97037.0</t>
-  </si>
-  <si>
-    <t>98519.0</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>97033.0</t>
-  </si>
-  <si>
-    <t>98517.0</t>
-  </si>
-  <si>
     <t>123.0</t>
   </si>
   <si>
@@ -657,6 +511,42 @@
   </si>
   <si>
     <t>98516.0</t>
+  </si>
+  <si>
+    <t>CreditHold</t>
+  </si>
+  <si>
+    <t>96590.0</t>
+  </si>
+  <si>
+    <t>98295.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>96588.0</t>
+  </si>
+  <si>
+    <t>98294.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>96586.0</t>
+  </si>
+  <si>
+    <t>98293.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>96584.0</t>
+  </si>
+  <si>
+    <t>98292.0</t>
   </si>
 </sst>
 </file>
@@ -666,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,762 +601,6 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1801,7 +935,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1890,200 +1024,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2148,134 +1093,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="186" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2559,7 +1378,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +2105,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D4BD-94B9-4920-AF2D-A59E170DB0E2}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4835,6 +3654,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C453DB-B39B-4920-8B54-04273C12C088}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
   <dimension ref="A1:D4"/>
@@ -4870,10 +3717,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4884,10 +3731,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4898,10 +3745,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EB70B9BF-CBDF-46A1-8509-9FD1BE3C83C9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EA3591DF-636A-41E3-B9AF-1BF7EE05DB41}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="25" windowHeight="10890" windowWidth="28710" xWindow="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="60"/>
+    <workbookView activeTab="3" windowHeight="15840" windowWidth="29040" xWindow="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-1020"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" r:id="rId1" sheetId="14"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="154">
   <si>
     <t>Customer</t>
   </si>
@@ -495,58 +495,37 @@
     <t>DiscountPct</t>
   </si>
   <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>97035.0</t>
-  </si>
-  <si>
-    <t>98518.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>97031.0</t>
-  </si>
-  <si>
-    <t>98516.0</t>
-  </si>
-  <si>
     <t>CreditHold</t>
   </si>
   <si>
-    <t>96590.0</t>
-  </si>
-  <si>
-    <t>98295.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>96588.0</t>
-  </si>
-  <si>
-    <t>98294.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>96586.0</t>
-  </si>
-  <si>
-    <t>98293.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>96584.0</t>
-  </si>
-  <si>
-    <t>98292.0</t>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>96048.0</t>
+  </si>
+  <si>
+    <t>98027.0</t>
+  </si>
+  <si>
+    <t>SalesDivision</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>95996.0</t>
+  </si>
+  <si>
+    <t>98002.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>95884.0</t>
+  </si>
+  <si>
+    <t>97944.0</t>
   </si>
 </sst>
 </file>
@@ -556,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,294 +617,6 @@
       <color indexed="10"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -935,7 +626,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -952,83 +643,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1045,56 +664,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1375,24 +946,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DC5EA-FDB2-4037-A650-5A7807A76B42}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1400,47 +972,53 @@
         <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
+      <c r="C2">
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>109</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3656,10 +3234,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C453DB-B39B-4920-8B54-04273C12C088}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,14 +3245,20 @@
     <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3271,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,10 +3301,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3731,10 +3315,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3745,10 +3329,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D4">
         <v>1</v>
